--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.36331973587729</v>
+        <v>7.4479585</v>
       </c>
       <c r="H2">
-        <v>7.36331973587729</v>
+        <v>14.895917</v>
       </c>
       <c r="I2">
-        <v>0.4575512322060506</v>
+        <v>0.4326517558596669</v>
       </c>
       <c r="J2">
-        <v>0.4575512322060506</v>
+        <v>0.3540927463829852</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.36331973587729</v>
+        <v>7.4479585</v>
       </c>
       <c r="N2">
-        <v>7.36331973587729</v>
+        <v>14.895917</v>
       </c>
       <c r="O2">
-        <v>0.4575512322060506</v>
+        <v>0.4326517558596669</v>
       </c>
       <c r="P2">
-        <v>0.4575512322060506</v>
+        <v>0.3540927463829852</v>
       </c>
       <c r="Q2">
-        <v>54.21847753276001</v>
+        <v>55.47208581772225</v>
       </c>
       <c r="R2">
-        <v>54.21847753276001</v>
+        <v>221.888343270889</v>
       </c>
       <c r="S2">
-        <v>0.2093531300932752</v>
+        <v>0.1871875418484528</v>
       </c>
       <c r="T2">
-        <v>0.2093531300932752</v>
+        <v>0.1253816730410451</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.36331973587729</v>
+        <v>7.4479585</v>
       </c>
       <c r="H3">
-        <v>7.36331973587729</v>
+        <v>14.895917</v>
       </c>
       <c r="I3">
-        <v>0.4575512322060506</v>
+        <v>0.4326517558596669</v>
       </c>
       <c r="J3">
-        <v>0.4575512322060506</v>
+        <v>0.3540927463829852</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.31747306585428</v>
+        <v>4.347922666666666</v>
       </c>
       <c r="N3">
-        <v>4.31747306585428</v>
+        <v>13.043768</v>
       </c>
       <c r="O3">
-        <v>0.2682845770872528</v>
+        <v>0.25257073815266</v>
       </c>
       <c r="P3">
-        <v>0.2682845770872528</v>
+        <v>0.310065075839406</v>
       </c>
       <c r="Q3">
-        <v>31.79093463492345</v>
+        <v>32.38314758254267</v>
       </c>
       <c r="R3">
-        <v>31.79093463492345</v>
+        <v>194.298885495256</v>
       </c>
       <c r="S3">
-        <v>0.1227539388281517</v>
+        <v>0.1092751733405205</v>
       </c>
       <c r="T3">
-        <v>0.1227539388281517</v>
+        <v>0.1097917942614239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.36331973587729</v>
+        <v>7.4479585</v>
       </c>
       <c r="H4">
-        <v>7.36331973587729</v>
+        <v>14.895917</v>
       </c>
       <c r="I4">
-        <v>0.4575512322060506</v>
+        <v>0.4326517558596669</v>
       </c>
       <c r="J4">
-        <v>0.4575512322060506</v>
+        <v>0.3540927463829852</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.269068977085994</v>
+        <v>0.013972</v>
       </c>
       <c r="N4">
-        <v>0.269068977085994</v>
+        <v>0.041916</v>
       </c>
       <c r="O4">
-        <v>0.0167197468574207</v>
+        <v>0.000811633192219219</v>
       </c>
       <c r="P4">
-        <v>0.0167197468574207</v>
+        <v>0.0009963905919581322</v>
       </c>
       <c r="Q4">
-        <v>1.981240909289614</v>
+        <v>0.104062876162</v>
       </c>
       <c r="R4">
-        <v>1.981240909289614</v>
+        <v>0.6243772569720001</v>
       </c>
       <c r="S4">
-        <v>0.007650140776786082</v>
+        <v>0.0003511545257276317</v>
       </c>
       <c r="T4">
-        <v>0.007650140776786082</v>
+        <v>0.0003528146811766234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.36331973587729</v>
+        <v>7.4479585</v>
       </c>
       <c r="H5">
-        <v>7.36331973587729</v>
+        <v>14.895917</v>
       </c>
       <c r="I5">
-        <v>0.4575512322060506</v>
+        <v>0.4326517558596669</v>
       </c>
       <c r="J5">
-        <v>0.4575512322060506</v>
+        <v>0.3540927463829852</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.02466679969921</v>
+        <v>0.3526420000000001</v>
       </c>
       <c r="N5">
-        <v>2.02466679969921</v>
+        <v>1.057926</v>
       </c>
       <c r="O5">
-        <v>0.125811294665813</v>
+        <v>0.02048496651664542</v>
       </c>
       <c r="P5">
-        <v>0.125811294665813</v>
+        <v>0.02514809412605924</v>
       </c>
       <c r="Q5">
-        <v>14.9082690048007</v>
+        <v>2.626462981357001</v>
       </c>
       <c r="R5">
-        <v>14.9082690048007</v>
+        <v>15.758777888142</v>
       </c>
       <c r="S5">
-        <v>0.05756511289978127</v>
+        <v>0.008862856732153129</v>
       </c>
       <c r="T5">
-        <v>0.05756511289978127</v>
+        <v>0.008904757715394134</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,123 +773,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.36331973587729</v>
+        <v>7.4479585</v>
       </c>
       <c r="H6">
-        <v>7.36331973587729</v>
+        <v>14.895917</v>
       </c>
       <c r="I6">
-        <v>0.4575512322060506</v>
+        <v>0.4326517558596669</v>
       </c>
       <c r="J6">
-        <v>0.4575512322060506</v>
+        <v>0.3540927463829852</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.11835723970203</v>
+        <v>2.923957333333334</v>
       </c>
       <c r="N6">
-        <v>2.11835723970203</v>
+        <v>8.771872</v>
       </c>
       <c r="O6">
-        <v>0.1316331491834629</v>
+        <v>0.1698526212686894</v>
       </c>
       <c r="P6">
-        <v>0.1316331491834629</v>
+        <v>0.2085172901675009</v>
       </c>
       <c r="Q6">
-        <v>15.5981416707365</v>
+        <v>21.77751287443733</v>
       </c>
       <c r="R6">
-        <v>15.5981416707365</v>
+        <v>130.665077246624</v>
       </c>
       <c r="S6">
-        <v>0.06022890960805632</v>
+        <v>0.07348703482926548</v>
       </c>
       <c r="T6">
-        <v>0.06022890960805632</v>
+        <v>0.07383445994374821</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.31747306585428</v>
+        <v>7.4479585</v>
       </c>
       <c r="H7">
-        <v>4.31747306585428</v>
+        <v>14.895917</v>
       </c>
       <c r="I7">
-        <v>0.2682845770872528</v>
+        <v>0.4326517558596669</v>
       </c>
       <c r="J7">
-        <v>0.2682845770872528</v>
+        <v>0.3540927463829852</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.36331973587729</v>
+        <v>2.1282205</v>
       </c>
       <c r="N7">
-        <v>7.36331973587729</v>
+        <v>4.256441000000001</v>
       </c>
       <c r="O7">
-        <v>0.4575512322060506</v>
+        <v>0.123628285010119</v>
       </c>
       <c r="P7">
-        <v>0.4575512322060506</v>
+        <v>0.1011804028920905</v>
       </c>
       <c r="Q7">
-        <v>31.79093463492345</v>
+        <v>15.85089796284925</v>
       </c>
       <c r="R7">
-        <v>31.79093463492345</v>
+        <v>63.40359185139701</v>
       </c>
       <c r="S7">
-        <v>0.1227539388281517</v>
+        <v>0.05348799458354733</v>
       </c>
       <c r="T7">
-        <v>0.1227539388281517</v>
+        <v>0.03582724674019726</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.31747306585428</v>
+        <v>4.347922666666666</v>
       </c>
       <c r="H8">
-        <v>4.31747306585428</v>
+        <v>13.043768</v>
       </c>
       <c r="I8">
-        <v>0.2682845770872528</v>
+        <v>0.25257073815266</v>
       </c>
       <c r="J8">
-        <v>0.2682845770872528</v>
+        <v>0.310065075839406</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.31747306585428</v>
+        <v>7.4479585</v>
       </c>
       <c r="N8">
-        <v>4.31747306585428</v>
+        <v>14.895917</v>
       </c>
       <c r="O8">
-        <v>0.2682845770872528</v>
+        <v>0.4326517558596669</v>
       </c>
       <c r="P8">
-        <v>0.2682845770872528</v>
+        <v>0.3540927463829852</v>
       </c>
       <c r="Q8">
-        <v>18.64057367437715</v>
+        <v>32.38314758254267</v>
       </c>
       <c r="R8">
-        <v>18.64057367437715</v>
+        <v>194.298885495256</v>
       </c>
       <c r="S8">
-        <v>0.07197661430288609</v>
+        <v>0.1092751733405205</v>
       </c>
       <c r="T8">
-        <v>0.07197661430288609</v>
+        <v>0.1097917942614239</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.31747306585428</v>
+        <v>4.347922666666666</v>
       </c>
       <c r="H9">
-        <v>4.31747306585428</v>
+        <v>13.043768</v>
       </c>
       <c r="I9">
-        <v>0.2682845770872528</v>
+        <v>0.25257073815266</v>
       </c>
       <c r="J9">
-        <v>0.2682845770872528</v>
+        <v>0.310065075839406</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.269068977085994</v>
+        <v>4.347922666666666</v>
       </c>
       <c r="N9">
-        <v>0.269068977085994</v>
+        <v>13.043768</v>
       </c>
       <c r="O9">
-        <v>0.0167197468574207</v>
+        <v>0.25257073815266</v>
       </c>
       <c r="P9">
-        <v>0.0167197468574207</v>
+        <v>0.310065075839406</v>
       </c>
       <c r="Q9">
-        <v>1.161698061425742</v>
+        <v>18.90443151531377</v>
       </c>
       <c r="R9">
-        <v>1.161698061425742</v>
+        <v>170.139883637824</v>
       </c>
       <c r="S9">
-        <v>0.004485650214649035</v>
+        <v>0.06379197777097954</v>
       </c>
       <c r="T9">
-        <v>0.004485650214649035</v>
+        <v>0.0961403512552966</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.31747306585428</v>
+        <v>4.347922666666666</v>
       </c>
       <c r="H10">
-        <v>4.31747306585428</v>
+        <v>13.043768</v>
       </c>
       <c r="I10">
-        <v>0.2682845770872528</v>
+        <v>0.25257073815266</v>
       </c>
       <c r="J10">
-        <v>0.2682845770872528</v>
+        <v>0.310065075839406</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.02466679969921</v>
+        <v>0.013972</v>
       </c>
       <c r="N10">
-        <v>2.02466679969921</v>
+        <v>0.041916</v>
       </c>
       <c r="O10">
-        <v>0.125811294665813</v>
+        <v>0.000811633192219219</v>
       </c>
       <c r="P10">
-        <v>0.125811294665813</v>
+        <v>0.0009963905919581322</v>
       </c>
       <c r="Q10">
-        <v>8.741444375030721</v>
+        <v>0.06074917549866667</v>
       </c>
       <c r="R10">
-        <v>8.741444375030721</v>
+        <v>0.546742579488</v>
       </c>
       <c r="S10">
-        <v>0.03375322998221739</v>
+        <v>0.0002049947944680079</v>
       </c>
       <c r="T10">
-        <v>0.03375322998221739</v>
+        <v>0.0003089459244611689</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,185 +1083,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.31747306585428</v>
+        <v>4.347922666666666</v>
       </c>
       <c r="H11">
-        <v>4.31747306585428</v>
+        <v>13.043768</v>
       </c>
       <c r="I11">
-        <v>0.2682845770872528</v>
+        <v>0.25257073815266</v>
       </c>
       <c r="J11">
-        <v>0.2682845770872528</v>
+        <v>0.310065075839406</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.11835723970203</v>
+        <v>0.3526420000000001</v>
       </c>
       <c r="N11">
-        <v>2.11835723970203</v>
+        <v>1.057926</v>
       </c>
       <c r="O11">
-        <v>0.1316331491834629</v>
+        <v>0.02048496651664542</v>
       </c>
       <c r="P11">
-        <v>0.1316331491834629</v>
+        <v>0.02514809412605924</v>
       </c>
       <c r="Q11">
-        <v>9.145950326270933</v>
+        <v>1.533260145018667</v>
       </c>
       <c r="R11">
-        <v>9.145950326270933</v>
+        <v>13.799341305168</v>
       </c>
       <c r="S11">
-        <v>0.0353151437593486</v>
+        <v>0.005173903114141659</v>
       </c>
       <c r="T11">
-        <v>0.0353151437593486</v>
+        <v>0.007797545712413079</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.269068977085994</v>
+        <v>4.347922666666666</v>
       </c>
       <c r="H12">
-        <v>0.269068977085994</v>
+        <v>13.043768</v>
       </c>
       <c r="I12">
-        <v>0.0167197468574207</v>
+        <v>0.25257073815266</v>
       </c>
       <c r="J12">
-        <v>0.0167197468574207</v>
+        <v>0.310065075839406</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.36331973587729</v>
+        <v>2.923957333333334</v>
       </c>
       <c r="N12">
-        <v>7.36331973587729</v>
+        <v>8.771872</v>
       </c>
       <c r="O12">
-        <v>0.4575512322060506</v>
+        <v>0.1698526212686894</v>
       </c>
       <c r="P12">
-        <v>0.4575512322060506</v>
+        <v>0.2085172901675009</v>
       </c>
       <c r="Q12">
-        <v>1.981240909289614</v>
+        <v>12.71314036596622</v>
       </c>
       <c r="R12">
-        <v>1.981240909289614</v>
+        <v>114.418263293696</v>
       </c>
       <c r="S12">
-        <v>0.007650140776786082</v>
+        <v>0.04289980193099709</v>
       </c>
       <c r="T12">
-        <v>0.007650140776786082</v>
+        <v>0.06465392938961359</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.269068977085994</v>
+        <v>4.347922666666666</v>
       </c>
       <c r="H13">
-        <v>0.269068977085994</v>
+        <v>13.043768</v>
       </c>
       <c r="I13">
-        <v>0.0167197468574207</v>
+        <v>0.25257073815266</v>
       </c>
       <c r="J13">
-        <v>0.0167197468574207</v>
+        <v>0.310065075839406</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.31747306585428</v>
+        <v>2.1282205</v>
       </c>
       <c r="N13">
-        <v>4.31747306585428</v>
+        <v>4.256441000000001</v>
       </c>
       <c r="O13">
-        <v>0.2682845770872528</v>
+        <v>0.123628285010119</v>
       </c>
       <c r="P13">
-        <v>0.2682845770872528</v>
+        <v>0.1011804028920905</v>
       </c>
       <c r="Q13">
-        <v>1.161698061425742</v>
+        <v>9.253338151614667</v>
       </c>
       <c r="R13">
-        <v>1.161698061425742</v>
+        <v>55.52002890968801</v>
       </c>
       <c r="S13">
-        <v>0.004485650214649035</v>
+        <v>0.03122488720155319</v>
       </c>
       <c r="T13">
-        <v>0.004485650214649035</v>
+        <v>0.0313725092961977</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1266,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.269068977085994</v>
+        <v>0.013972</v>
       </c>
       <c r="H14">
-        <v>0.269068977085994</v>
+        <v>0.041916</v>
       </c>
       <c r="I14">
-        <v>0.0167197468574207</v>
+        <v>0.000811633192219219</v>
       </c>
       <c r="J14">
-        <v>0.0167197468574207</v>
+        <v>0.0009963905919581322</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.269068977085994</v>
+        <v>7.4479585</v>
       </c>
       <c r="N14">
-        <v>0.269068977085994</v>
+        <v>14.895917</v>
       </c>
       <c r="O14">
-        <v>0.0167197468574207</v>
+        <v>0.4326517558596669</v>
       </c>
       <c r="P14">
-        <v>0.0167197468574207</v>
+        <v>0.3540927463829852</v>
       </c>
       <c r="Q14">
-        <v>0.07239811443010315</v>
+        <v>0.104062876162</v>
       </c>
       <c r="R14">
-        <v>0.07239811443010315</v>
+        <v>0.6243772569720001</v>
       </c>
       <c r="S14">
-        <v>0.0002795499349762293</v>
+        <v>0.0003511545257276317</v>
       </c>
       <c r="T14">
-        <v>0.0002795499349762293</v>
+        <v>0.0003528146811766234</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1328,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.269068977085994</v>
+        <v>0.013972</v>
       </c>
       <c r="H15">
-        <v>0.269068977085994</v>
+        <v>0.041916</v>
       </c>
       <c r="I15">
-        <v>0.0167197468574207</v>
+        <v>0.000811633192219219</v>
       </c>
       <c r="J15">
-        <v>0.0167197468574207</v>
+        <v>0.0009963905919581322</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.02466679969921</v>
+        <v>4.347922666666666</v>
       </c>
       <c r="N15">
-        <v>2.02466679969921</v>
+        <v>13.043768</v>
       </c>
       <c r="O15">
-        <v>0.125811294665813</v>
+        <v>0.25257073815266</v>
       </c>
       <c r="P15">
-        <v>0.125811294665813</v>
+        <v>0.310065075839406</v>
       </c>
       <c r="Q15">
-        <v>0.5447750247350395</v>
+        <v>0.06074917549866667</v>
       </c>
       <c r="R15">
-        <v>0.5447750247350395</v>
+        <v>0.546742579488</v>
       </c>
       <c r="S15">
-        <v>0.002103532998616757</v>
+        <v>0.0002049947944680079</v>
       </c>
       <c r="T15">
-        <v>0.002103532998616757</v>
+        <v>0.0003089459244611689</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1390,247 +1393,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.269068977085994</v>
+        <v>0.013972</v>
       </c>
       <c r="H16">
-        <v>0.269068977085994</v>
+        <v>0.041916</v>
       </c>
       <c r="I16">
-        <v>0.0167197468574207</v>
+        <v>0.000811633192219219</v>
       </c>
       <c r="J16">
-        <v>0.0167197468574207</v>
+        <v>0.0009963905919581322</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>2.11835723970203</v>
+        <v>0.013972</v>
       </c>
       <c r="N16">
-        <v>2.11835723970203</v>
+        <v>0.041916</v>
       </c>
       <c r="O16">
-        <v>0.1316331491834629</v>
+        <v>0.000811633192219219</v>
       </c>
       <c r="P16">
-        <v>0.1316331491834629</v>
+        <v>0.0009963905919581322</v>
       </c>
       <c r="Q16">
-        <v>0.5699842155893349</v>
+        <v>0.000195216784</v>
       </c>
       <c r="R16">
-        <v>0.5699842155893349</v>
+        <v>0.001756951056</v>
       </c>
       <c r="S16">
-        <v>0.002200872932392594</v>
+        <v>6.587484387119598E-07</v>
       </c>
       <c r="T16">
-        <v>0.002200872932392594</v>
+        <v>9.927942117426771E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.02466679969921</v>
+        <v>0.013972</v>
       </c>
       <c r="H17">
-        <v>2.02466679969921</v>
+        <v>0.041916</v>
       </c>
       <c r="I17">
-        <v>0.125811294665813</v>
+        <v>0.000811633192219219</v>
       </c>
       <c r="J17">
-        <v>0.125811294665813</v>
+        <v>0.0009963905919581322</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.36331973587729</v>
+        <v>0.3526420000000001</v>
       </c>
       <c r="N17">
-        <v>7.36331973587729</v>
+        <v>1.057926</v>
       </c>
       <c r="O17">
-        <v>0.4575512322060506</v>
+        <v>0.02048496651664542</v>
       </c>
       <c r="P17">
-        <v>0.4575512322060506</v>
+        <v>0.02514809412605924</v>
       </c>
       <c r="Q17">
-        <v>14.9082690048007</v>
+        <v>0.004927114024000001</v>
       </c>
       <c r="R17">
-        <v>14.9082690048007</v>
+        <v>0.04434402621600001</v>
       </c>
       <c r="S17">
-        <v>0.05756511289978127</v>
+        <v>1.662627876640874E-05</v>
       </c>
       <c r="T17">
-        <v>0.05756511289978127</v>
+        <v>2.5057324392883E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2.02466679969921</v>
+        <v>0.013972</v>
       </c>
       <c r="H18">
-        <v>2.02466679969921</v>
+        <v>0.041916</v>
       </c>
       <c r="I18">
-        <v>0.125811294665813</v>
+        <v>0.000811633192219219</v>
       </c>
       <c r="J18">
-        <v>0.125811294665813</v>
+        <v>0.0009963905919581322</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.31747306585428</v>
+        <v>2.923957333333334</v>
       </c>
       <c r="N18">
-        <v>4.31747306585428</v>
+        <v>8.771872</v>
       </c>
       <c r="O18">
-        <v>0.2682845770872528</v>
+        <v>0.1698526212686894</v>
       </c>
       <c r="P18">
-        <v>0.2682845770872528</v>
+        <v>0.2085172901675009</v>
       </c>
       <c r="Q18">
-        <v>8.741444375030721</v>
+        <v>0.04085353186133334</v>
       </c>
       <c r="R18">
-        <v>8.741444375030721</v>
+        <v>0.367681786752</v>
       </c>
       <c r="S18">
-        <v>0.03375322998221739</v>
+        <v>0.0001378580252071084</v>
       </c>
       <c r="T18">
-        <v>0.03375322998221739</v>
+        <v>0.0002077646661835018</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>2.02466679969921</v>
+        <v>0.013972</v>
       </c>
       <c r="H19">
-        <v>2.02466679969921</v>
+        <v>0.041916</v>
       </c>
       <c r="I19">
-        <v>0.125811294665813</v>
+        <v>0.000811633192219219</v>
       </c>
       <c r="J19">
-        <v>0.125811294665813</v>
+        <v>0.0009963905919581322</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.269068977085994</v>
+        <v>2.1282205</v>
       </c>
       <c r="N19">
-        <v>0.269068977085994</v>
+        <v>4.256441000000001</v>
       </c>
       <c r="O19">
-        <v>0.0167197468574207</v>
+        <v>0.123628285010119</v>
       </c>
       <c r="P19">
-        <v>0.0167197468574207</v>
+        <v>0.1011804028920905</v>
       </c>
       <c r="Q19">
-        <v>0.5447750247350395</v>
+        <v>0.029735496826</v>
       </c>
       <c r="R19">
-        <v>0.5447750247350395</v>
+        <v>0.178412980956</v>
       </c>
       <c r="S19">
-        <v>0.002103532998616757</v>
+        <v>0.0001003408196113503</v>
       </c>
       <c r="T19">
-        <v>0.002103532998616757</v>
+        <v>0.0001008152015322124</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1638,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.02466679969921</v>
+        <v>0.3526420000000001</v>
       </c>
       <c r="H20">
-        <v>2.02466679969921</v>
+        <v>1.057926</v>
       </c>
       <c r="I20">
-        <v>0.125811294665813</v>
+        <v>0.02048496651664542</v>
       </c>
       <c r="J20">
-        <v>0.125811294665813</v>
+        <v>0.02514809412605924</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.02466679969921</v>
+        <v>7.4479585</v>
       </c>
       <c r="N20">
-        <v>2.02466679969921</v>
+        <v>14.895917</v>
       </c>
       <c r="O20">
-        <v>0.125811294665813</v>
+        <v>0.4326517558596669</v>
       </c>
       <c r="P20">
-        <v>0.125811294665813</v>
+        <v>0.3540927463829852</v>
       </c>
       <c r="Q20">
-        <v>4.09927564980424</v>
+        <v>2.626462981357001</v>
       </c>
       <c r="R20">
-        <v>4.09927564980424</v>
+        <v>15.758777888142</v>
       </c>
       <c r="S20">
-        <v>0.01582848186548803</v>
+        <v>0.008862856732153129</v>
       </c>
       <c r="T20">
-        <v>0.01582848186548803</v>
+        <v>0.008904757715394134</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1700,309 +1703,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.02466679969921</v>
+        <v>0.3526420000000001</v>
       </c>
       <c r="H21">
-        <v>2.02466679969921</v>
+        <v>1.057926</v>
       </c>
       <c r="I21">
-        <v>0.125811294665813</v>
+        <v>0.02048496651664542</v>
       </c>
       <c r="J21">
-        <v>0.125811294665813</v>
+        <v>0.02514809412605924</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.11835723970203</v>
+        <v>4.347922666666666</v>
       </c>
       <c r="N21">
-        <v>2.11835723970203</v>
+        <v>13.043768</v>
       </c>
       <c r="O21">
-        <v>0.1316331491834629</v>
+        <v>0.25257073815266</v>
       </c>
       <c r="P21">
-        <v>0.1316331491834629</v>
+        <v>0.310065075839406</v>
       </c>
       <c r="Q21">
-        <v>4.28896757312716</v>
+        <v>1.533260145018667</v>
       </c>
       <c r="R21">
-        <v>4.28896757312716</v>
+        <v>13.799341305168</v>
       </c>
       <c r="S21">
-        <v>0.01656093691970957</v>
+        <v>0.005173903114141659</v>
       </c>
       <c r="T21">
-        <v>0.01656093691970957</v>
+        <v>0.007797545712413079</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.11835723970203</v>
+        <v>0.3526420000000001</v>
       </c>
       <c r="H22">
-        <v>2.11835723970203</v>
+        <v>1.057926</v>
       </c>
       <c r="I22">
-        <v>0.1316331491834629</v>
+        <v>0.02048496651664542</v>
       </c>
       <c r="J22">
-        <v>0.1316331491834629</v>
+        <v>0.02514809412605924</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>7.36331973587729</v>
+        <v>0.013972</v>
       </c>
       <c r="N22">
-        <v>7.36331973587729</v>
+        <v>0.041916</v>
       </c>
       <c r="O22">
-        <v>0.4575512322060506</v>
+        <v>0.000811633192219219</v>
       </c>
       <c r="P22">
-        <v>0.4575512322060506</v>
+        <v>0.0009963905919581322</v>
       </c>
       <c r="Q22">
-        <v>15.5981416707365</v>
+        <v>0.004927114024000001</v>
       </c>
       <c r="R22">
-        <v>15.5981416707365</v>
+        <v>0.04434402621600001</v>
       </c>
       <c r="S22">
-        <v>0.06022890960805632</v>
+        <v>1.662627876640874E-05</v>
       </c>
       <c r="T22">
-        <v>0.06022890960805632</v>
+        <v>2.5057324392883E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.11835723970203</v>
+        <v>0.3526420000000001</v>
       </c>
       <c r="H23">
-        <v>2.11835723970203</v>
+        <v>1.057926</v>
       </c>
       <c r="I23">
-        <v>0.1316331491834629</v>
+        <v>0.02048496651664542</v>
       </c>
       <c r="J23">
-        <v>0.1316331491834629</v>
+        <v>0.02514809412605924</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.31747306585428</v>
+        <v>0.3526420000000001</v>
       </c>
       <c r="N23">
-        <v>4.31747306585428</v>
+        <v>1.057926</v>
       </c>
       <c r="O23">
-        <v>0.2682845770872528</v>
+        <v>0.02048496651664542</v>
       </c>
       <c r="P23">
-        <v>0.2682845770872528</v>
+        <v>0.02514809412605924</v>
       </c>
       <c r="Q23">
-        <v>9.145950326270933</v>
+        <v>0.1243563801640001</v>
       </c>
       <c r="R23">
-        <v>9.145950326270933</v>
+        <v>1.119207421476</v>
       </c>
       <c r="S23">
-        <v>0.0353151437593486</v>
+        <v>0.0004196338531880842</v>
       </c>
       <c r="T23">
-        <v>0.0353151437593486</v>
+        <v>0.0006324266381731354</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.11835723970203</v>
+        <v>0.3526420000000001</v>
       </c>
       <c r="H24">
-        <v>2.11835723970203</v>
+        <v>1.057926</v>
       </c>
       <c r="I24">
-        <v>0.1316331491834629</v>
+        <v>0.02048496651664542</v>
       </c>
       <c r="J24">
-        <v>0.1316331491834629</v>
+        <v>0.02514809412605924</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.269068977085994</v>
+        <v>2.923957333333334</v>
       </c>
       <c r="N24">
-        <v>0.269068977085994</v>
+        <v>8.771872</v>
       </c>
       <c r="O24">
-        <v>0.0167197468574207</v>
+        <v>0.1698526212686894</v>
       </c>
       <c r="P24">
-        <v>0.0167197468574207</v>
+        <v>0.2085172901675009</v>
       </c>
       <c r="Q24">
-        <v>0.5699842155893349</v>
+        <v>1.031110161941334</v>
       </c>
       <c r="R24">
-        <v>0.5699842155893349</v>
+        <v>9.279991457472001</v>
       </c>
       <c r="S24">
-        <v>0.002200872932392594</v>
+        <v>0.003479425259453559</v>
       </c>
       <c r="T24">
-        <v>0.002200872932392594</v>
+        <v>0.005243812440043119</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.11835723970203</v>
+        <v>0.3526420000000001</v>
       </c>
       <c r="H25">
-        <v>2.11835723970203</v>
+        <v>1.057926</v>
       </c>
       <c r="I25">
-        <v>0.1316331491834629</v>
+        <v>0.02048496651664542</v>
       </c>
       <c r="J25">
-        <v>0.1316331491834629</v>
+        <v>0.02514809412605924</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.02466679969921</v>
+        <v>2.1282205</v>
       </c>
       <c r="N25">
-        <v>2.02466679969921</v>
+        <v>4.256441000000001</v>
       </c>
       <c r="O25">
-        <v>0.125811294665813</v>
+        <v>0.123628285010119</v>
       </c>
       <c r="P25">
-        <v>0.125811294665813</v>
+        <v>0.1011804028920905</v>
       </c>
       <c r="Q25">
-        <v>4.28896757312716</v>
+        <v>0.7504999335610002</v>
       </c>
       <c r="R25">
-        <v>4.28896757312716</v>
+        <v>4.502999601366001</v>
       </c>
       <c r="S25">
-        <v>0.01656093691970957</v>
+        <v>0.002532521278942585</v>
       </c>
       <c r="T25">
-        <v>0.01656093691970957</v>
+        <v>0.002544494295642889</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2010,61 +2013,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.923957333333334</v>
+      </c>
+      <c r="H26">
+        <v>8.771872</v>
+      </c>
+      <c r="I26">
+        <v>0.1698526212686894</v>
+      </c>
+      <c r="J26">
+        <v>0.2085172901675009</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.4479585</v>
+      </c>
+      <c r="N26">
+        <v>14.895917</v>
+      </c>
+      <c r="O26">
+        <v>0.4326517558596669</v>
+      </c>
+      <c r="P26">
+        <v>0.3540927463829852</v>
+      </c>
+      <c r="Q26">
+        <v>21.77751287443733</v>
+      </c>
+      <c r="R26">
+        <v>130.665077246624</v>
+      </c>
+      <c r="S26">
+        <v>0.07348703482926548</v>
+      </c>
+      <c r="T26">
+        <v>0.07383445994374821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.923957333333334</v>
+      </c>
+      <c r="H27">
+        <v>8.771872</v>
+      </c>
+      <c r="I27">
+        <v>0.1698526212686894</v>
+      </c>
+      <c r="J27">
+        <v>0.2085172901675009</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4.347922666666666</v>
+      </c>
+      <c r="N27">
+        <v>13.043768</v>
+      </c>
+      <c r="O27">
+        <v>0.25257073815266</v>
+      </c>
+      <c r="P27">
+        <v>0.310065075839406</v>
+      </c>
+      <c r="Q27">
+        <v>12.71314036596622</v>
+      </c>
+      <c r="R27">
+        <v>114.418263293696</v>
+      </c>
+      <c r="S27">
+        <v>0.04289980193099709</v>
+      </c>
+      <c r="T27">
+        <v>0.06465392938961359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.923957333333334</v>
+      </c>
+      <c r="H28">
+        <v>8.771872</v>
+      </c>
+      <c r="I28">
+        <v>0.1698526212686894</v>
+      </c>
+      <c r="J28">
+        <v>0.2085172901675009</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.013972</v>
+      </c>
+      <c r="N28">
+        <v>0.041916</v>
+      </c>
+      <c r="O28">
+        <v>0.000811633192219219</v>
+      </c>
+      <c r="P28">
+        <v>0.0009963905919581322</v>
+      </c>
+      <c r="Q28">
+        <v>0.04085353186133334</v>
+      </c>
+      <c r="R28">
+        <v>0.367681786752</v>
+      </c>
+      <c r="S28">
+        <v>0.0001378580252071084</v>
+      </c>
+      <c r="T28">
+        <v>0.0002077646661835018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.923957333333334</v>
+      </c>
+      <c r="H29">
+        <v>8.771872</v>
+      </c>
+      <c r="I29">
+        <v>0.1698526212686894</v>
+      </c>
+      <c r="J29">
+        <v>0.2085172901675009</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.3526420000000001</v>
+      </c>
+      <c r="N29">
+        <v>1.057926</v>
+      </c>
+      <c r="O29">
+        <v>0.02048496651664542</v>
+      </c>
+      <c r="P29">
+        <v>0.02514809412605924</v>
+      </c>
+      <c r="Q29">
+        <v>1.031110161941334</v>
+      </c>
+      <c r="R29">
+        <v>9.279991457472001</v>
+      </c>
+      <c r="S29">
+        <v>0.003479425259453559</v>
+      </c>
+      <c r="T29">
+        <v>0.005243812440043119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.923957333333334</v>
+      </c>
+      <c r="H30">
+        <v>8.771872</v>
+      </c>
+      <c r="I30">
+        <v>0.1698526212686894</v>
+      </c>
+      <c r="J30">
+        <v>0.2085172901675009</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.923957333333334</v>
+      </c>
+      <c r="N30">
+        <v>8.771872</v>
+      </c>
+      <c r="O30">
+        <v>0.1698526212686894</v>
+      </c>
+      <c r="P30">
+        <v>0.2085172901675009</v>
+      </c>
+      <c r="Q30">
+        <v>8.549526487153779</v>
+      </c>
+      <c r="R30">
+        <v>76.945738384384</v>
+      </c>
+      <c r="S30">
+        <v>0.02884991295184484</v>
+      </c>
+      <c r="T30">
+        <v>0.04347946029879775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.923957333333334</v>
+      </c>
+      <c r="H31">
+        <v>8.771872</v>
+      </c>
+      <c r="I31">
+        <v>0.1698526212686894</v>
+      </c>
+      <c r="J31">
+        <v>0.2085172901675009</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.1282205</v>
+      </c>
+      <c r="N31">
+        <v>4.256441000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.123628285010119</v>
+      </c>
+      <c r="P31">
+        <v>0.1011804028920905</v>
+      </c>
+      <c r="Q31">
+        <v>6.222825937925335</v>
+      </c>
+      <c r="R31">
+        <v>37.33695562755201</v>
+      </c>
+      <c r="S31">
+        <v>0.02099858827192133</v>
+      </c>
+      <c r="T31">
+        <v>0.02109786342911468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.1282205</v>
+      </c>
+      <c r="H32">
+        <v>4.256441000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.123628285010119</v>
+      </c>
+      <c r="J32">
+        <v>0.1011804028920905</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>7.4479585</v>
+      </c>
+      <c r="N32">
+        <v>14.895917</v>
+      </c>
+      <c r="O32">
+        <v>0.4326517558596669</v>
+      </c>
+      <c r="P32">
+        <v>0.3540927463829852</v>
+      </c>
+      <c r="Q32">
+        <v>15.85089796284925</v>
+      </c>
+      <c r="R32">
+        <v>63.40359185139701</v>
+      </c>
+      <c r="S32">
+        <v>0.05348799458354733</v>
+      </c>
+      <c r="T32">
+        <v>0.03582724674019726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.1282205</v>
+      </c>
+      <c r="H33">
+        <v>4.256441000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.123628285010119</v>
+      </c>
+      <c r="J33">
+        <v>0.1011804028920905</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.347922666666666</v>
+      </c>
+      <c r="N33">
+        <v>13.043768</v>
+      </c>
+      <c r="O33">
+        <v>0.25257073815266</v>
+      </c>
+      <c r="P33">
+        <v>0.310065075839406</v>
+      </c>
+      <c r="Q33">
+        <v>9.253338151614667</v>
+      </c>
+      <c r="R33">
+        <v>55.52002890968801</v>
+      </c>
+      <c r="S33">
+        <v>0.03122488720155319</v>
+      </c>
+      <c r="T33">
+        <v>0.0313725092961977</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.1282205</v>
+      </c>
+      <c r="H34">
+        <v>4.256441000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.123628285010119</v>
+      </c>
+      <c r="J34">
+        <v>0.1011804028920905</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.013972</v>
+      </c>
+      <c r="N34">
+        <v>0.041916</v>
+      </c>
+      <c r="O34">
+        <v>0.000811633192219219</v>
+      </c>
+      <c r="P34">
+        <v>0.0009963905919581322</v>
+      </c>
+      <c r="Q34">
+        <v>0.029735496826</v>
+      </c>
+      <c r="R34">
+        <v>0.178412980956</v>
+      </c>
+      <c r="S34">
+        <v>0.0001003408196113503</v>
+      </c>
+      <c r="T34">
+        <v>0.0001008152015322124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.1282205</v>
+      </c>
+      <c r="H35">
+        <v>4.256441000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.123628285010119</v>
+      </c>
+      <c r="J35">
+        <v>0.1011804028920905</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.3526420000000001</v>
+      </c>
+      <c r="N35">
+        <v>1.057926</v>
+      </c>
+      <c r="O35">
+        <v>0.02048496651664542</v>
+      </c>
+      <c r="P35">
+        <v>0.02514809412605924</v>
+      </c>
+      <c r="Q35">
+        <v>0.7504999335610002</v>
+      </c>
+      <c r="R35">
+        <v>4.502999601366001</v>
+      </c>
+      <c r="S35">
+        <v>0.002532521278942585</v>
+      </c>
+      <c r="T35">
+        <v>0.002544494295642889</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.11835723970203</v>
-      </c>
-      <c r="H26">
-        <v>2.11835723970203</v>
-      </c>
-      <c r="I26">
-        <v>0.1316331491834629</v>
-      </c>
-      <c r="J26">
-        <v>0.1316331491834629</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>2.11835723970203</v>
-      </c>
-      <c r="N26">
-        <v>2.11835723970203</v>
-      </c>
-      <c r="O26">
-        <v>0.1316331491834629</v>
-      </c>
-      <c r="P26">
-        <v>0.1316331491834629</v>
-      </c>
-      <c r="Q26">
-        <v>4.487437394998003</v>
-      </c>
-      <c r="R26">
-        <v>4.487437394998003</v>
-      </c>
-      <c r="S26">
-        <v>0.01732728596395579</v>
-      </c>
-      <c r="T26">
-        <v>0.01732728596395579</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.1282205</v>
+      </c>
+      <c r="H36">
+        <v>4.256441000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.123628285010119</v>
+      </c>
+      <c r="J36">
+        <v>0.1011804028920905</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.923957333333334</v>
+      </c>
+      <c r="N36">
+        <v>8.771872</v>
+      </c>
+      <c r="O36">
+        <v>0.1698526212686894</v>
+      </c>
+      <c r="P36">
+        <v>0.2085172901675009</v>
+      </c>
+      <c r="Q36">
+        <v>6.222825937925335</v>
+      </c>
+      <c r="R36">
+        <v>37.33695562755201</v>
+      </c>
+      <c r="S36">
+        <v>0.02099858827192133</v>
+      </c>
+      <c r="T36">
+        <v>0.02109786342911468</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.1282205</v>
+      </c>
+      <c r="H37">
+        <v>4.256441000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.123628285010119</v>
+      </c>
+      <c r="J37">
+        <v>0.1011804028920905</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.1282205</v>
+      </c>
+      <c r="N37">
+        <v>4.256441000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.123628285010119</v>
+      </c>
+      <c r="P37">
+        <v>0.1011804028920905</v>
+      </c>
+      <c r="Q37">
+        <v>4.529322496620251</v>
+      </c>
+      <c r="R37">
+        <v>18.117289986481</v>
+      </c>
+      <c r="S37">
+        <v>0.01528395285454321</v>
+      </c>
+      <c r="T37">
+        <v>0.01023747392940576</v>
       </c>
     </row>
   </sheetData>
